--- a/data/TC003.xlsx
+++ b/data/TC003.xlsx
@@ -39,13 +39,13 @@
     <t>crmsfa</t>
   </si>
   <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
     <t>tcs</t>
-  </si>
-  <si>
-    <t>bala</t>
-  </si>
-  <si>
-    <t>pn</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
